--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H2">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I2">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J2">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>31.4053150109826</v>
+        <v>32.310024056962</v>
       </c>
       <c r="R2">
-        <v>31.4053150109826</v>
+        <v>290.790216512658</v>
       </c>
       <c r="S2">
-        <v>0.02253495986774355</v>
+        <v>0.01901461118120237</v>
       </c>
       <c r="T2">
-        <v>0.02253495986774355</v>
+        <v>0.01901461118120238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H3">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I3">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J3">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>30.43422719077266</v>
+        <v>32.405436486568</v>
       </c>
       <c r="R3">
-        <v>30.43422719077266</v>
+        <v>291.648928379112</v>
       </c>
       <c r="S3">
-        <v>0.02183815344982249</v>
+        <v>0.01907076187448608</v>
       </c>
       <c r="T3">
-        <v>0.02183815344982249</v>
+        <v>0.01907076187448609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H4">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I4">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J4">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>21.04579737493526</v>
+        <v>22.901358244561</v>
       </c>
       <c r="R4">
-        <v>21.04579737493526</v>
+        <v>206.112224201049</v>
       </c>
       <c r="S4">
-        <v>0.01510146289132828</v>
+        <v>0.01347756416937486</v>
       </c>
       <c r="T4">
-        <v>0.01510146289132828</v>
+        <v>0.01347756416937486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H5">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I5">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J5">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>15.30213331786678</v>
+        <v>35.219117701778</v>
       </c>
       <c r="R5">
-        <v>15.30213331786678</v>
+        <v>316.972059316002</v>
       </c>
       <c r="S5">
-        <v>0.01098008283274342</v>
+        <v>0.02072662737928267</v>
       </c>
       <c r="T5">
-        <v>0.01098008283274342</v>
+        <v>0.02072662737928268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H6">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I6">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J6">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>1.037303750780098</v>
+        <v>1.168930398655</v>
       </c>
       <c r="R6">
-        <v>1.037303750780098</v>
+        <v>10.520373587895</v>
       </c>
       <c r="S6">
-        <v>0.000744319819314495</v>
+        <v>0.0006879214013931815</v>
       </c>
       <c r="T6">
-        <v>0.000744319819314495</v>
+        <v>0.0006879214013931817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H7">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I7">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J7">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>399.2230322068674</v>
+        <v>399.8893272444372</v>
       </c>
       <c r="R7">
-        <v>399.2230322068674</v>
+        <v>3599.003945199935</v>
       </c>
       <c r="S7">
-        <v>0.2864634539062746</v>
+        <v>0.2353368743910654</v>
       </c>
       <c r="T7">
-        <v>0.2864634539062746</v>
+        <v>0.2353368743910655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H8">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I8">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J8">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>386.8786050298818</v>
+        <v>401.0702119203085</v>
       </c>
       <c r="R8">
-        <v>386.8786050298818</v>
+        <v>3609.631907282776</v>
       </c>
       <c r="S8">
-        <v>0.2776056802801743</v>
+        <v>0.236031830944547</v>
       </c>
       <c r="T8">
-        <v>0.2776056802801743</v>
+        <v>0.2360318309445471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H9">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I9">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J9">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>267.5332834679344</v>
+        <v>283.4417184356141</v>
       </c>
       <c r="R9">
-        <v>267.5332834679344</v>
+        <v>2550.975465920527</v>
       </c>
       <c r="S9">
-        <v>0.1919691556708551</v>
+        <v>0.1668068726622856</v>
       </c>
       <c r="T9">
-        <v>0.1919691556708551</v>
+        <v>0.1668068726622856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H10">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I10">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J10">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>194.5200696205777</v>
+        <v>435.8941132039163</v>
       </c>
       <c r="R10">
-        <v>194.5200696205777</v>
+        <v>3923.047018835246</v>
       </c>
       <c r="S10">
-        <v>0.1395783471949721</v>
+        <v>0.2565258714798618</v>
       </c>
       <c r="T10">
-        <v>0.1395783471949721</v>
+        <v>0.2565258714798619</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H11">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I11">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J11">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>13.18616127751526</v>
+        <v>14.46742317150945</v>
       </c>
       <c r="R11">
-        <v>13.18616127751526</v>
+        <v>130.206808543585</v>
       </c>
       <c r="S11">
-        <v>0.009461761969096174</v>
+        <v>0.008514151085594572</v>
       </c>
       <c r="T11">
-        <v>0.009461761969096174</v>
+        <v>0.008514151085594574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H12">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I12">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J12">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>10.46386384202323</v>
+        <v>0.02183641238444444</v>
       </c>
       <c r="R12">
-        <v>10.46386384202323</v>
+        <v>0.19652771146</v>
       </c>
       <c r="S12">
-        <v>0.007508370849299393</v>
+        <v>1.285083819035832E-05</v>
       </c>
       <c r="T12">
-        <v>0.007508370849299393</v>
+        <v>1.285083819035832E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H13">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I13">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J13">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>10.14030935050578</v>
+        <v>0.02190089593777778</v>
       </c>
       <c r="R13">
-        <v>10.14030935050578</v>
+        <v>0.19710806344</v>
       </c>
       <c r="S13">
-        <v>0.007276203540077238</v>
+        <v>1.288878708485787E-05</v>
       </c>
       <c r="T13">
-        <v>0.007276203540077238</v>
+        <v>1.288878708485787E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H14">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I14">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J14">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>7.012200262952953</v>
+        <v>0.01547765801444444</v>
       </c>
       <c r="R14">
-        <v>7.012200262952953</v>
+        <v>0.13929892213</v>
       </c>
       <c r="S14">
-        <v>0.005031621286236591</v>
+        <v>9.108679356642794E-06</v>
       </c>
       <c r="T14">
-        <v>0.005031621286236591</v>
+        <v>9.108679356642796E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H15">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I15">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J15">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>5.098482198782296</v>
+        <v>0.02380249474888889</v>
       </c>
       <c r="R15">
-        <v>5.098482198782296</v>
+        <v>0.21422245274</v>
       </c>
       <c r="S15">
-        <v>0.003658428253172588</v>
+        <v>1.400788752106207E-05</v>
       </c>
       <c r="T15">
-        <v>0.003658428253172588</v>
+        <v>1.400788752106208E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.005356666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.01607</v>
+      </c>
+      <c r="I16">
+        <v>4.93211170747479E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.932111707474791E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.442445</v>
+      </c>
+      <c r="O16">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P16">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q16">
+        <v>0.0007900101277777777</v>
+      </c>
+      <c r="R16">
+        <v>0.00711009115</v>
+      </c>
+      <c r="S16">
+        <v>4.649249218268421E-07</v>
+      </c>
+      <c r="T16">
+        <v>4.649249218268423E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.015872</v>
+      </c>
+      <c r="I17">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J17">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.076492666666667</v>
+      </c>
+      <c r="N17">
+        <v>12.229478</v>
+      </c>
+      <c r="O17">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="P17">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="Q17">
+        <v>0.02156736386844444</v>
+      </c>
+      <c r="R17">
+        <v>0.194106274816</v>
+      </c>
+      <c r="S17">
+        <v>1.269250178950636E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.269250178950637E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.015872</v>
+      </c>
+      <c r="I18">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J18">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.088530666666666</v>
+      </c>
+      <c r="N18">
+        <v>12.265592</v>
+      </c>
+      <c r="O18">
+        <v>0.2613239084857801</v>
+      </c>
+      <c r="P18">
+        <v>0.2613239084857802</v>
+      </c>
+      <c r="Q18">
+        <v>0.02163105291377778</v>
+      </c>
+      <c r="R18">
+        <v>0.194679476224</v>
+      </c>
+      <c r="S18">
+        <v>1.272998311206373E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.272998311206373E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.015872</v>
+      </c>
+      <c r="I19">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J19">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.889419666666666</v>
+      </c>
+      <c r="N19">
+        <v>8.668258999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="P19">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="Q19">
+        <v>0.01528695631644444</v>
+      </c>
+      <c r="R19">
+        <v>0.137582606848</v>
+      </c>
+      <c r="S19">
+        <v>8.996450451066236E-06</v>
+      </c>
+      <c r="T19">
+        <v>8.996450451066238E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.015872</v>
+      </c>
+      <c r="I20">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J20">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.443527333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.330582</v>
+      </c>
+      <c r="O20">
+        <v>0.2840139954622808</v>
+      </c>
+      <c r="P20">
+        <v>0.2840139954622809</v>
+      </c>
+      <c r="Q20">
+        <v>0.02350922194488889</v>
+      </c>
+      <c r="R20">
+        <v>0.211582997504</v>
+      </c>
+      <c r="S20">
+        <v>1.383529500524563E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.383529500524563E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.015872</v>
+      </c>
+      <c r="I21">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J21">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.442445</v>
+      </c>
+      <c r="O21">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P21">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q21">
+        <v>0.0007802763377777776</v>
+      </c>
+      <c r="R21">
+        <v>0.00702248704</v>
+      </c>
+      <c r="S21">
+        <v>4.591965376002264E-07</v>
+      </c>
+      <c r="T21">
+        <v>4.591965376002266E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H22">
+        <v>7.72492</v>
+      </c>
+      <c r="I22">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J22">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.076492666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.229478</v>
+      </c>
+      <c r="O22">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="P22">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="Q22">
+        <v>10.49685991019556</v>
+      </c>
+      <c r="R22">
+        <v>94.47173919176001</v>
+      </c>
+      <c r="S22">
+        <v>0.006177454695299488</v>
+      </c>
+      <c r="T22">
+        <v>0.00617745469529949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H23">
+        <v>7.72492</v>
+      </c>
+      <c r="I23">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J23">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.088530666666666</v>
+      </c>
+      <c r="N23">
+        <v>12.265592</v>
+      </c>
+      <c r="O23">
+        <v>0.2613239084857801</v>
+      </c>
+      <c r="P23">
+        <v>0.2613239084857802</v>
+      </c>
+      <c r="Q23">
+        <v>10.52785743918222</v>
+      </c>
+      <c r="R23">
+        <v>94.75071695264</v>
+      </c>
+      <c r="S23">
+        <v>0.006195696896550109</v>
+      </c>
+      <c r="T23">
+        <v>0.006195696896550111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.57077289587295</v>
-      </c>
-      <c r="H16">
-        <v>2.57077289587295</v>
-      </c>
-      <c r="I16">
-        <v>0.02372262211767526</v>
-      </c>
-      <c r="J16">
-        <v>0.02372262211767526</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.134440822805992</v>
-      </c>
-      <c r="N16">
-        <v>0.134440822805992</v>
-      </c>
-      <c r="O16">
-        <v>0.01045407997730011</v>
-      </c>
-      <c r="P16">
-        <v>0.01045407997730011</v>
-      </c>
-      <c r="Q16">
-        <v>0.3456168233685022</v>
-      </c>
-      <c r="R16">
-        <v>0.3456168233685022</v>
-      </c>
-      <c r="S16">
-        <v>0.0002479981888894458</v>
-      </c>
-      <c r="T16">
-        <v>0.0002479981888894458</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H24">
+        <v>7.72492</v>
+      </c>
+      <c r="I24">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J24">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.889419666666666</v>
+      </c>
+      <c r="N24">
+        <v>8.668258999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="P24">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="Q24">
+        <v>7.440178590475555</v>
+      </c>
+      <c r="R24">
+        <v>66.96160731427999</v>
+      </c>
+      <c r="S24">
+        <v>0.004378582410436656</v>
+      </c>
+      <c r="T24">
+        <v>0.004378582410436656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H25">
+        <v>7.72492</v>
+      </c>
+      <c r="I25">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J25">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.443527333333333</v>
+      </c>
+      <c r="N25">
+        <v>13.330582</v>
+      </c>
+      <c r="O25">
+        <v>0.2840139954622808</v>
+      </c>
+      <c r="P25">
+        <v>0.2840139954622809</v>
+      </c>
+      <c r="Q25">
+        <v>11.44196438927111</v>
+      </c>
+      <c r="R25">
+        <v>102.97767950344</v>
+      </c>
+      <c r="S25">
+        <v>0.006733653420610008</v>
+      </c>
+      <c r="T25">
+        <v>0.00673365342061001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H26">
+        <v>7.72492</v>
+      </c>
+      <c r="I26">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J26">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.442445</v>
+      </c>
+      <c r="O26">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P26">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q26">
+        <v>0.3797613588222222</v>
+      </c>
+      <c r="R26">
+        <v>3.4178522294</v>
+      </c>
+      <c r="S26">
+        <v>0.0002234914640397392</v>
+      </c>
+      <c r="T26">
+        <v>0.0002234914640397393</v>
       </c>
     </row>
   </sheetData>
